--- a/biology/Botanique/Forsteronia_umbellata/Forsteronia_umbellata.xlsx
+++ b/biology/Botanique/Forsteronia_umbellata/Forsteronia_umbellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forsteronia umbellata est une espèce de plantes à fleurs de la famille des Apocynaceae (famille des pervenches). C'est une liane ligneuse rarae néotropicale. 
-En Guyane, elle est connue sous le nom de Ɨpɔlkalawata (Wayãpi)[2].
+En Guyane, elle est connue sous le nom de Ɨpɔlkalawata (Wayãpi).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forsteronia umbellata a le statut d'espèce déterminante ZNIEFF en Guyane[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forsteronia umbellata a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forsteronia umbellata est une liane ligneuse pouvant atteindre 20 m de long. L'écorce est brune, lisse. La jeune tige finement ferrugineuse, devient glabre et nettement lenticellée en vieillissant. Le pétiole long de 0,8 à 1 cm. Les feuilles pubescentes, subcordées, très discolores : la face inférieure est grisâtre, très tomenteuse sur les nervures, avec 2-3 colléters à la base de la nervure primaire. Le limbe coriace, mesure 5-10,5 x 2,8-7 cm, avec un apex très abruptement et brièvement acuminé. L'inflorescence est terminale, pyramidale-thyrsiforme, sub-ombellée, sub-globuleuse à hémisphérique, est plus courte que les feuilles sous-jacentes. Les sépales sont ovales, longs de 0,1-0,2 cm, aigus, densément pubérulents sauf sur la marge. Les colléters y sont très petits. La corolle violette, forme un tube long d'environ 1 mm, (avec des lobes d'environ 3 mm de long), poilu à l'extérieur (sauf sur la marge) et à l'intérieur. Les étamines sont longues de 1,5–2 mm. Les anthères sont barbelés aux extrémités. Le disque est vert pâle. L'ovaire ovoïde mesure environ 0,7 mm de long, et est hirtelleux. Les fruits sont des follicules subcylindriques, divaricatés, glabres, et lenticellés[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forsteronia umbellata est une liane ligneuse pouvant atteindre 20 m de long. L'écorce est brune, lisse. La jeune tige finement ferrugineuse, devient glabre et nettement lenticellée en vieillissant. Le pétiole long de 0,8 à 1 cm. Les feuilles pubescentes, subcordées, très discolores : la face inférieure est grisâtre, très tomenteuse sur les nervures, avec 2-3 colléters à la base de la nervure primaire. Le limbe coriace, mesure 5-10,5 x 2,8-7 cm, avec un apex très abruptement et brièvement acuminé. L'inflorescence est terminale, pyramidale-thyrsiforme, sub-ombellée, sub-globuleuse à hémisphérique, est plus courte que les feuilles sous-jacentes. Les sépales sont ovales, longs de 0,1-0,2 cm, aigus, densément pubérulents sauf sur la marge. Les colléters y sont très petits. La corolle violette, forme un tube long d'environ 1 mm, (avec des lobes d'environ 3 mm de long), poilu à l'extérieur (sauf sur la marge) et à l'intérieur. Les étamines sont longues de 1,5–2 mm. Les anthères sont barbelés aux extrémités. Le disque est vert pâle. L'ovaire ovoïde mesure environ 0,7 mm de long, et est hirtelleux. Les fruits sont des follicules subcylindriques, divaricatés, glabres, et lenticellés,.
 Elle produit un latex blanc collant comme les autres Forsteronia.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Forsteronia umbellata dans quelques régions du nord-est de l'Amérique du Sud : Venezuela (Amazonas), Guyane, Brésil (Amazonas, Pará)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Forsteronia umbellata dans quelques régions du nord-est de l'Amérique du Sud : Venezuela (Amazonas), Guyane, Brésil (Amazonas, Pará).
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce rare connue d'un nombre restreint de localités[6],[7]. On le rencontre au Venezuela dans les savanes rocheuses, jusqu'à 200 mètres d'altitude, et en Guyane, dans quelques forêts ripicoles et forêts basses sur sol sableux de l'intérieur, et des forêts de la région de Cayenne. Elle fleurit d'octobre à janvier et fructifie en février[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce rare connue d'un nombre restreint de localités,. On le rencontre au Venezuela dans les savanes rocheuses, jusqu'à 200 mètres d'altitude, et en Guyane, dans quelques forêts ripicoles et forêts basses sur sol sableux de l'intérieur, et des forêts de la région de Cayenne. Elle fleurit d'octobre à janvier et fructifie en février.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet rapporte ceci, à propos de cet arbre, dans son « HISTOIRE DES PLANTES DE LA GUIANE FRANÇOISE »[8] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet rapporte ceci, à propos de cet arbre, dans son « HISTOIRE DES PLANTES DE LA GUIANE FRANÇOISE » : 
 « APOCYNUM (umbellatum) foliis ovato-acuminatis, ſubtùs tomentoſis ; floribus purpuraſcentibus. (TABULA 108.) 
 Frutex, ramos plures, volubiles, ſuprà arbores vicinas ſcandentes è trunco emittens. Folia oppoſita, ovato-acuta, integerrima, ſupernè glabra, viridia, infernè tomentoſa, cinerca, brevi fiolata. Flores corymboſi, terminates ; pedunculi partiales bracteis duabus muniti ut &amp; pedunculus ſinguli floris ; corolla purpurea. Fructus deſideratur. 
 Florebat Januario. 
